--- a/_data/sr/temporal/Vitalicias.xlsx
+++ b/_data/sr/temporal/Vitalicias.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\BASE DE DATOS SENASIR_v2\ABRIL\SR\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\MAYO\SR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1145,30 +1145,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1180,16 +1156,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1559,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="I3" s="74">
         <f>+'PROCESO DE PLANILLAS'!G13</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J3" s="74">
         <f>+'PROCESO DE PLANILLAS'!H13</f>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I5" s="74">
         <f>+'PROCESO DE PLANILLAS'!G15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="74">
         <f>+'PROCESO DE PLANILLAS'!H15</f>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="I6" s="74">
         <f>+'PROCESO DE PLANILLAS'!G16</f>
-        <v>0</v>
+        <v>1067</v>
       </c>
       <c r="J6" s="74">
         <f>+'PROCESO DE PLANILLAS'!H16</f>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="I7" s="74">
         <f>+'PROCESO DE PLANILLAS'!G18</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J7" s="74">
         <f>+'PROCESO DE PLANILLAS'!H18</f>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="I9" s="74">
         <f>+'PROCESO DE PLANILLAS'!G21</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J9" s="74">
         <f>+'PROCESO DE PLANILLAS'!H21</f>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="I10">
         <f>+'PROCESO DE PLANILLAS'!G31</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J10">
         <f>+'PROCESO DE PLANILLAS'!H31</f>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="I11">
         <f>+'PROCESO DE PLANILLAS'!G32</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <f>+'PROCESO DE PLANILLAS'!H32</f>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="I12">
         <f>+'PROCESO DE PLANILLAS'!G33</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J12">
         <f>+'PROCESO DE PLANILLAS'!H33</f>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="I13">
         <f>+'PROCESO DE PLANILLAS'!G34</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <f>+'PROCESO DE PLANILLAS'!H34</f>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="I14">
         <f>+'PROCESO DE PLANILLAS'!G35</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <f>+'PROCESO DE PLANILLAS'!H35</f>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="I15">
         <f>+'PROCESO DE PLANILLAS'!G36</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J15">
         <f>+'PROCESO DE PLANILLAS'!H36</f>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="I17">
         <f>+'PROCESO DE PLANILLAS'!G38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <f>+'PROCESO DE PLANILLAS'!H38</f>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="I20" s="74">
         <f>+'POR REGIONAL'!G12</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J20" s="74">
         <f>+'POR REGIONAL'!H12</f>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="I21" s="74">
         <f>+'POR REGIONAL'!G13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="74">
         <f>+'POR REGIONAL'!H13</f>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="I22" s="74">
         <f>+'POR REGIONAL'!G14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" s="74">
         <f>+'POR REGIONAL'!H14</f>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="I23" s="74">
         <f>+'POR REGIONAL'!G15</f>
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="J23" s="74">
         <f>+'POR REGIONAL'!H15</f>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="I24" s="74">
         <f>+'POR REGIONAL'!G16</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J24" s="74">
         <f>+'POR REGIONAL'!H16</f>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="I25" s="74">
         <f>+'POR REGIONAL'!G17</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="74">
         <f>+'POR REGIONAL'!H17</f>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="I26" s="74">
         <f>+'POR REGIONAL'!G18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="74">
         <f>+'POR REGIONAL'!H18</f>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="I27" s="74">
         <f>+'POR REGIONAL'!G19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="74">
         <f>+'POR REGIONAL'!H19</f>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="I28" s="74">
         <f>+'POR REGIONAL'!G20</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="J28" s="74">
         <f>+'POR REGIONAL'!H20</f>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="I29" s="74">
         <f>+'POR REGIONAL'!G21</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="74">
         <f>+'POR REGIONAL'!H21</f>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="I30" s="74">
         <f>+'POR REGIONAL'!G22</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J30" s="74">
         <f>+'POR REGIONAL'!H22</f>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="I31" s="74">
         <f>+'POR REGIONAL'!G23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="74">
         <f>+'POR REGIONAL'!H23</f>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="I32" s="74">
         <f>+'POR REGIONAL'!G24</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J32" s="74">
         <f>+'POR REGIONAL'!H24</f>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="I33" s="74">
         <f>+'POR REGIONAL'!G25</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J33" s="74">
         <f>+'POR REGIONAL'!H25</f>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="I34" s="74">
         <f>+'POR REGIONAL'!G26</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J34" s="74">
         <f>+'POR REGIONAL'!H26</f>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="I36" s="74">
         <f>+'POR REGIONAL'!G28</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J36" s="74">
         <f>+'POR REGIONAL'!H28</f>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="I37" s="74">
         <f>+'POR REGIONAL'!G29</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J37" s="74">
         <f>+'POR REGIONAL'!H29</f>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I38" s="74">
         <f>+'POR REGIONAL'!G30</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J38" s="74">
         <f>+'POR REGIONAL'!H30</f>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="I39" s="74">
         <f>+'POR REGIONAL'!G31</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J39" s="74">
         <f>+'POR REGIONAL'!H31</f>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I40" s="74">
         <f>+'POR REGIONAL'!G32</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" s="74">
         <f>+'POR REGIONAL'!H32</f>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="I41" s="74">
         <f>+'POR REGIONAL'!G33</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J41" s="74">
         <f>+'POR REGIONAL'!H33</f>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="I42" s="74">
         <f>+'POR REGIONAL'!G34</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J42" s="74">
         <f>+'POR REGIONAL'!H34</f>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="I43" s="74">
         <f>+'POR REGIONAL'!G35</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" s="74">
         <f>+'POR REGIONAL'!H35</f>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="I44" s="74">
         <f>+'POR REGIONAL'!G36</f>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="J44" s="74">
         <f>+'POR REGIONAL'!H36</f>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="I45" s="74">
         <f>+'POR REGIONAL'!G37</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" s="74">
         <f>+'POR REGIONAL'!H37</f>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="I46" s="74">
         <f>+'POR REGIONAL'!G38</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" s="74">
         <f>+'POR REGIONAL'!H38</f>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="I47" s="74">
         <f>+'POR REGIONAL'!G39</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" s="74">
         <f>+'POR REGIONAL'!H39</f>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="I48" s="74">
         <f>+'POR REGIONAL'!G40</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" s="74">
         <f>+'POR REGIONAL'!H40</f>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="I49" s="74">
         <f>+'POR REGIONAL'!G41</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J49" s="74">
         <f>+'POR REGIONAL'!H41</f>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="I50" s="74">
         <f>+'POR REGIONAL'!G42</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J50" s="74">
         <f>+'POR REGIONAL'!H42</f>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="I51" s="74">
         <f>+'POR REGIONAL'!G43</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J51" s="74">
         <f>+'POR REGIONAL'!H43</f>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="I52" s="74">
         <f>+'POR REGIONAL'!G44</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J52" s="74">
         <f>+'POR REGIONAL'!H44</f>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="I53" s="74">
         <f>+'POR REGIONAL'!G45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="74">
         <f>+'POR REGIONAL'!H45</f>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="I54" s="74">
         <f>+'POR REGIONAL'!G46</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J54" s="74">
         <f>+'POR REGIONAL'!H46</f>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="I55" s="74">
         <f>+'POR REGIONAL'!G47</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J55" s="74">
         <f>+'POR REGIONAL'!H47</f>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="I56" s="74">
         <f>+'POR REGIONAL'!G48</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J56" s="74">
         <f>+'POR REGIONAL'!H48</f>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="I57" s="74">
         <f>+'POR REGIONAL'!G49</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J57" s="74">
         <f>+'POR REGIONAL'!H49</f>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="I58" s="74">
         <f>+'POR REGIONAL'!G50</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" s="74">
         <f>+'POR REGIONAL'!H50</f>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I59" s="74">
         <f>+'POR REGIONAL'!G51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="74">
         <f>+'POR REGIONAL'!H51</f>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="I61" s="74">
         <f>+'POR REGIONAL'!G53</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" s="74">
         <f>+'POR REGIONAL'!H53</f>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="I62" s="74">
         <f>+'POR REGIONAL'!G54</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J62" s="74">
         <f>+'POR REGIONAL'!H54</f>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="I65">
         <f>+NOVEDADES!G13</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J65">
         <f>+NOVEDADES!H13</f>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="I71">
         <f>+NOVEDADES!G19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
         <f>+NOVEDADES!H19</f>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="I72">
         <f>+NOVEDADES!G20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J72">
         <f>+NOVEDADES!H20</f>
@@ -6343,8 +6343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6448,22 +6448,22 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="89"/>
+      <c r="A5" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -6472,20 +6472,20 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="90"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -6516,22 +6516,22 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -6540,20 +6540,20 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:34" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -6562,26 +6562,26 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="85" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="87">
         <v>2024</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="83"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="89"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -6666,7 +6666,7 @@
       <c r="AH11" s="3"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="95" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -6684,7 +6684,9 @@
       <c r="F12" s="9">
         <v>0</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -6714,7 +6716,7 @@
       <c r="AH12" s="3"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
@@ -6730,7 +6732,9 @@
       <c r="F13" s="11">
         <v>13</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11">
+        <v>13</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -6760,7 +6764,7 @@
       <c r="AH13" s="3"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
@@ -6776,7 +6780,9 @@
       <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -6806,7 +6812,7 @@
       <c r="AH14" s="3"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
@@ -6822,7 +6828,9 @@
       <c r="F15" s="11">
         <v>1</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -6852,7 +6860,7 @@
       <c r="AH15" s="3"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
@@ -6868,7 +6876,9 @@
       <c r="F16" s="11">
         <v>1073</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="11">
+        <v>1067</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -6898,10 +6908,10 @@
       <c r="AH16" s="3"/>
     </row>
     <row r="17" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="81"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="15">
         <f t="shared" ref="C17:N17" si="0">SUM(C12:C16)</f>
         <v>1112</v>
@@ -6920,7 +6930,7 @@
       </c>
       <c r="G17" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="H17" s="15">
         <f t="shared" si="0"/>
@@ -6990,7 +7000,9 @@
       <c r="F18" s="19">
         <v>40</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="19">
+        <v>39</v>
+      </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -7070,7 +7082,7 @@
       <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="91" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="31" t="s">
@@ -7148,7 +7160,9 @@
       <c r="F21" s="36">
         <v>34</v>
       </c>
-      <c r="G21" s="36"/>
+      <c r="G21" s="36">
+        <v>31</v>
+      </c>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
@@ -7178,10 +7192,10 @@
       <c r="AH21" s="3"/>
     </row>
     <row r="22" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="76"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="37">
         <f t="shared" ref="C22:N22" si="1">SUM(C20:C21)</f>
         <v>32</v>
@@ -7200,7 +7214,7 @@
       </c>
       <c r="G22" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H22" s="37">
         <f t="shared" si="1"/>
@@ -7288,22 +7302,22 @@
       <c r="AH23" s="3"/>
     </row>
     <row r="24" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="89"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="77"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -7326,20 +7340,20 @@
       <c r="AH24" s="3"/>
     </row>
     <row r="25" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="92"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="80"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -7398,22 +7412,22 @@
       <c r="AH26" s="3"/>
     </row>
     <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="77"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="83"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -7436,20 +7450,20 @@
       <c r="AH27" s="3"/>
     </row>
     <row r="28" spans="1:34" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="77"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="83"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -7472,24 +7486,24 @@
       <c r="AH28" s="3"/>
     </row>
     <row r="29" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="82">
+      <c r="C29" s="87">
         <v>2024</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="83"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="89"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -7574,7 +7588,7 @@
       <c r="AH30" s="3"/>
     </row>
     <row r="31" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="92" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -7592,7 +7606,9 @@
       <c r="F31" s="40">
         <v>6</v>
       </c>
-      <c r="G31" s="40"/>
+      <c r="G31" s="40">
+        <v>6</v>
+      </c>
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
       <c r="J31" s="40"/>
@@ -7622,7 +7638,7 @@
       <c r="AH31" s="3"/>
     </row>
     <row r="32" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="7" t="s">
         <v>32</v>
       </c>
@@ -7638,7 +7654,9 @@
       <c r="F32" s="40">
         <v>1</v>
       </c>
-      <c r="G32" s="40"/>
+      <c r="G32" s="40">
+        <v>1</v>
+      </c>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
       <c r="J32" s="40"/>
@@ -7670,7 +7688,7 @@
       <c r="AH32" s="3"/>
     </row>
     <row r="33" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="7" t="s">
         <v>34</v>
       </c>
@@ -7686,7 +7704,9 @@
       <c r="F33" s="40">
         <v>11</v>
       </c>
-      <c r="G33" s="40"/>
+      <c r="G33" s="40">
+        <v>9</v>
+      </c>
       <c r="H33" s="40"/>
       <c r="I33" s="40"/>
       <c r="J33" s="40"/>
@@ -7716,7 +7736,7 @@
       <c r="AH33" s="3"/>
     </row>
     <row r="34" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="7" t="s">
         <v>35</v>
       </c>
@@ -7732,7 +7752,9 @@
       <c r="F34" s="40">
         <v>4</v>
       </c>
-      <c r="G34" s="40"/>
+      <c r="G34" s="40">
+        <v>3</v>
+      </c>
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
       <c r="J34" s="40"/>
@@ -7762,7 +7784,7 @@
       <c r="AH34" s="3"/>
     </row>
     <row r="35" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
+      <c r="A35" s="93"/>
       <c r="B35" s="7" t="s">
         <v>36</v>
       </c>
@@ -7778,7 +7800,9 @@
       <c r="F35" s="40">
         <v>3</v>
       </c>
-      <c r="G35" s="40"/>
+      <c r="G35" s="40">
+        <v>3</v>
+      </c>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
@@ -7808,7 +7832,7 @@
       <c r="AH35" s="3"/>
     </row>
     <row r="36" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="97"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="7" t="s">
         <v>37</v>
       </c>
@@ -7824,7 +7848,9 @@
       <c r="F36" s="40">
         <v>8</v>
       </c>
-      <c r="G36" s="40"/>
+      <c r="G36" s="40">
+        <v>8</v>
+      </c>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
@@ -7854,7 +7880,7 @@
       <c r="AH36" s="3"/>
     </row>
     <row r="37" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="97"/>
+      <c r="A37" s="93"/>
       <c r="B37" s="7" t="s">
         <v>38</v>
       </c>
@@ -7870,7 +7896,9 @@
       <c r="F37" s="38">
         <v>0</v>
       </c>
-      <c r="G37" s="38"/>
+      <c r="G37" s="38">
+        <v>0</v>
+      </c>
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
@@ -7900,7 +7928,7 @@
       <c r="AH37" s="3"/>
     </row>
     <row r="38" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="97"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
@@ -7916,7 +7944,9 @@
       <c r="F38" s="40">
         <v>1</v>
       </c>
-      <c r="G38" s="40"/>
+      <c r="G38" s="40">
+        <v>1</v>
+      </c>
       <c r="H38" s="40"/>
       <c r="I38" s="38"/>
       <c r="J38" s="38"/>
@@ -7968,7 +7998,7 @@
       </c>
       <c r="G39" s="44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H39" s="44">
         <f t="shared" si="2"/>
@@ -7998,8 +8028,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O39" s="84"/>
-      <c r="P39" s="76"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="82"/>
       <c r="Q39" s="37"/>
       <c r="R39" s="37"/>
       <c r="S39" s="37"/>
@@ -8016,26 +8046,26 @@
       <c r="AD39" s="37"/>
       <c r="AE39" s="37"/>
       <c r="AF39" s="37"/>
-      <c r="AG39" s="84"/>
-      <c r="AH39" s="76"/>
+      <c r="AG39" s="90"/>
+      <c r="AH39" s="82"/>
     </row>
     <row r="40" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="77"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="83"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -16019,11 +16049,11 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:N6"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="O39:P39"/>
     <mergeCell ref="AG39:AH39"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:B22"/>
@@ -16032,11 +16062,11 @@
     <mergeCell ref="A28:N28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="A5:N6"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16049,7 +16079,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16180,19 +16210,19 @@
       <c r="A5" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="89"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -16207,20 +16237,20 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="90"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -16263,22 +16293,22 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -16294,19 +16324,19 @@
     </row>
     <row r="9" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -16324,21 +16354,21 @@
       <c r="A10" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="77"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="100">
         <v>2024</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="77"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -16427,7 +16457,9 @@
       <c r="F12" s="46">
         <v>0</v>
       </c>
-      <c r="G12" s="46"/>
+      <c r="G12" s="46">
+        <v>0</v>
+      </c>
       <c r="H12" s="46"/>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
@@ -16465,7 +16497,9 @@
       <c r="F13" s="46">
         <v>0</v>
       </c>
-      <c r="G13" s="46"/>
+      <c r="G13" s="46">
+        <v>0</v>
+      </c>
       <c r="H13" s="46"/>
       <c r="I13" s="50"/>
       <c r="J13" s="46"/>
@@ -16487,10 +16521,10 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="77"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="51">
         <f>SUM(C12:C13)</f>
         <v>0</v>
@@ -23121,8 +23155,8 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12:F54"/>
+      <pane ySplit="11" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23221,22 +23255,22 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="89"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -23244,20 +23278,20 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="90"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -23286,22 +23320,22 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -23310,19 +23344,19 @@
     </row>
     <row r="9" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -23333,21 +23367,21 @@
       <c r="A10" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="77"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="100">
         <v>2024</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="77"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -23422,7 +23456,9 @@
       <c r="F12" s="13">
         <v>57</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="13">
+        <v>57</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="55"/>
       <c r="J12" s="13"/>
@@ -23443,7 +23479,7 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="54" t="s">
         <v>49</v>
       </c>
@@ -23459,7 +23495,9 @@
       <c r="F13" s="13">
         <v>2</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="13">
+        <v>2</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="56"/>
       <c r="J13" s="13"/>
@@ -23490,7 +23528,9 @@
       <c r="F14" s="13">
         <v>3</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13">
+        <v>4</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="56"/>
       <c r="J14" s="13"/>
@@ -23529,7 +23569,9 @@
       <c r="F15" s="13">
         <v>342</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="13">
+        <v>338</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="56"/>
       <c r="J15" s="13"/>
@@ -23544,7 +23586,7 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="54" t="s">
         <v>51</v>
       </c>
@@ -23560,7 +23602,9 @@
       <c r="F16" s="13">
         <v>10</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="13">
+        <v>11</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="56"/>
       <c r="J16" s="13"/>
@@ -23575,7 +23619,7 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="54" t="s">
         <v>52</v>
       </c>
@@ -23591,7 +23635,9 @@
       <c r="F17" s="13">
         <v>2</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="13">
+        <v>2</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="56"/>
       <c r="J17" s="13"/>
@@ -23606,7 +23652,7 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="54" t="s">
         <v>53</v>
       </c>
@@ -23622,7 +23668,9 @@
       <c r="F18" s="13">
         <v>3</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="13">
+        <v>3</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="56"/>
       <c r="J18" s="13"/>
@@ -23637,7 +23685,7 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="54" t="s">
         <v>54</v>
       </c>
@@ -23653,7 +23701,9 @@
       <c r="F19" s="13">
         <v>1</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="56"/>
       <c r="J19" s="13"/>
@@ -23686,7 +23736,9 @@
       <c r="F20" s="13">
         <v>179</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="13">
+        <v>178</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="56"/>
       <c r="J20" s="13"/>
@@ -23701,7 +23753,7 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="54" t="s">
         <v>55</v>
       </c>
@@ -23717,7 +23769,9 @@
       <c r="F21" s="13">
         <v>2</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="13">
+        <v>2</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="56"/>
       <c r="J21" s="13"/>
@@ -23732,7 +23786,7 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="54" t="s">
         <v>56</v>
       </c>
@@ -23748,7 +23802,9 @@
       <c r="F22" s="13">
         <v>9</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="13">
+        <v>9</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="56"/>
       <c r="J22" s="13"/>
@@ -23779,7 +23835,9 @@
       <c r="F23" s="13">
         <v>1</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="56"/>
       <c r="J23" s="13"/>
@@ -23812,7 +23870,9 @@
       <c r="F24" s="13">
         <v>43</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="13">
+        <v>43</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="56"/>
       <c r="J24" s="13"/>
@@ -23845,7 +23905,9 @@
       <c r="F25" s="13">
         <v>24</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="13">
+        <v>24</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="56"/>
       <c r="J25" s="13"/>
@@ -23860,7 +23922,7 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="54" t="s">
         <v>58</v>
       </c>
@@ -23876,7 +23938,9 @@
       <c r="F26" s="13">
         <v>6</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="13">
+        <v>6</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="56"/>
       <c r="J26" s="13"/>
@@ -23891,7 +23955,7 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="54" t="s">
         <v>59</v>
       </c>
@@ -23907,7 +23971,9 @@
       <c r="F27" s="8">
         <v>0</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
       <c r="H27" s="13"/>
       <c r="I27" s="56"/>
       <c r="J27" s="8"/>
@@ -23922,7 +23988,7 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="54" t="s">
         <v>60</v>
       </c>
@@ -23938,7 +24004,9 @@
       <c r="F28" s="13">
         <v>11</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="13">
+        <v>11</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="56"/>
       <c r="J28" s="13"/>
@@ -23953,7 +24021,7 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="54" t="s">
         <v>61</v>
       </c>
@@ -23969,7 +24037,9 @@
       <c r="F29" s="13">
         <v>9</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="13">
+        <v>9</v>
+      </c>
       <c r="H29" s="13"/>
       <c r="I29" s="56"/>
       <c r="J29" s="13"/>
@@ -24000,7 +24070,9 @@
       <c r="F30" s="13">
         <v>6</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="13">
+        <v>6</v>
+      </c>
       <c r="H30" s="13"/>
       <c r="I30" s="56"/>
       <c r="J30" s="13"/>
@@ -24033,7 +24105,9 @@
       <c r="F31" s="13">
         <v>34</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="13">
+        <v>35</v>
+      </c>
       <c r="H31" s="13"/>
       <c r="I31" s="56"/>
       <c r="J31" s="13"/>
@@ -24048,7 +24122,7 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="54" t="s">
         <v>63</v>
       </c>
@@ -24064,7 +24138,9 @@
       <c r="F32" s="13">
         <v>3</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="13">
+        <v>3</v>
+      </c>
       <c r="H32" s="13"/>
       <c r="I32" s="56"/>
       <c r="J32" s="13"/>
@@ -24079,7 +24155,7 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="54" t="s">
         <v>64</v>
       </c>
@@ -24095,7 +24171,9 @@
       <c r="F33" s="13">
         <v>22</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="13">
+        <v>21</v>
+      </c>
       <c r="H33" s="13"/>
       <c r="I33" s="56"/>
       <c r="J33" s="13"/>
@@ -24110,7 +24188,7 @@
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="54" t="s">
         <v>65</v>
       </c>
@@ -24126,7 +24204,9 @@
       <c r="F34" s="13">
         <v>10</v>
       </c>
-      <c r="G34" s="13"/>
+      <c r="G34" s="13">
+        <v>10</v>
+      </c>
       <c r="H34" s="13"/>
       <c r="I34" s="56"/>
       <c r="J34" s="13"/>
@@ -24157,7 +24237,9 @@
       <c r="F35" s="13">
         <v>4</v>
       </c>
-      <c r="G35" s="13"/>
+      <c r="G35" s="13">
+        <v>4</v>
+      </c>
       <c r="H35" s="13"/>
       <c r="I35" s="56"/>
       <c r="J35" s="13"/>
@@ -24190,7 +24272,9 @@
       <c r="F36" s="13">
         <v>188</v>
       </c>
-      <c r="G36" s="13"/>
+      <c r="G36" s="13">
+        <v>186</v>
+      </c>
       <c r="H36" s="13"/>
       <c r="I36" s="56"/>
       <c r="J36" s="13"/>
@@ -24205,7 +24289,7 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="97"/>
+      <c r="A37" s="93"/>
       <c r="B37" s="54" t="s">
         <v>68</v>
       </c>
@@ -24221,7 +24305,9 @@
       <c r="F37" s="13">
         <v>3</v>
       </c>
-      <c r="G37" s="13"/>
+      <c r="G37" s="13">
+        <v>3</v>
+      </c>
       <c r="H37" s="13"/>
       <c r="I37" s="56"/>
       <c r="J37" s="13"/>
@@ -24236,7 +24322,7 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="97"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="54" t="s">
         <v>69</v>
       </c>
@@ -24252,7 +24338,9 @@
       <c r="F38" s="13">
         <v>3</v>
       </c>
-      <c r="G38" s="13"/>
+      <c r="G38" s="13">
+        <v>3</v>
+      </c>
       <c r="H38" s="13"/>
       <c r="I38" s="56"/>
       <c r="J38" s="13"/>
@@ -24267,7 +24355,7 @@
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="97"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="54" t="s">
         <v>70</v>
       </c>
@@ -24283,7 +24371,9 @@
       <c r="F39" s="13">
         <v>3</v>
       </c>
-      <c r="G39" s="13"/>
+      <c r="G39" s="13">
+        <v>3</v>
+      </c>
       <c r="H39" s="13"/>
       <c r="I39" s="56"/>
       <c r="J39" s="13"/>
@@ -24298,7 +24388,7 @@
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="97"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="54" t="s">
         <v>71</v>
       </c>
@@ -24314,7 +24404,9 @@
       <c r="F40" s="13">
         <v>3</v>
       </c>
-      <c r="G40" s="13"/>
+      <c r="G40" s="13">
+        <v>3</v>
+      </c>
       <c r="H40" s="13"/>
       <c r="I40" s="56"/>
       <c r="J40" s="13"/>
@@ -24329,7 +24421,7 @@
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="97"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="54" t="s">
         <v>72</v>
       </c>
@@ -24345,7 +24437,9 @@
       <c r="F41" s="13">
         <v>17</v>
       </c>
-      <c r="G41" s="13"/>
+      <c r="G41" s="13">
+        <v>17</v>
+      </c>
       <c r="H41" s="13"/>
       <c r="I41" s="56"/>
       <c r="J41" s="13"/>
@@ -24360,7 +24454,7 @@
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="97"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="54" t="s">
         <v>73</v>
       </c>
@@ -24376,7 +24470,9 @@
       <c r="F42" s="13">
         <v>8</v>
       </c>
-      <c r="G42" s="13"/>
+      <c r="G42" s="13">
+        <v>8</v>
+      </c>
       <c r="H42" s="13"/>
       <c r="I42" s="56"/>
       <c r="J42" s="13"/>
@@ -24391,7 +24487,7 @@
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="97"/>
+      <c r="A43" s="93"/>
       <c r="B43" s="54" t="s">
         <v>74</v>
       </c>
@@ -24407,7 +24503,9 @@
       <c r="F43" s="13">
         <v>5</v>
       </c>
-      <c r="G43" s="13"/>
+      <c r="G43" s="13">
+        <v>5</v>
+      </c>
       <c r="H43" s="13"/>
       <c r="I43" s="56"/>
       <c r="J43" s="13"/>
@@ -24422,7 +24520,7 @@
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="97"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="54" t="s">
         <v>75</v>
       </c>
@@ -24438,7 +24536,9 @@
       <c r="F44" s="13">
         <v>8</v>
       </c>
-      <c r="G44" s="13"/>
+      <c r="G44" s="13">
+        <v>7</v>
+      </c>
       <c r="H44" s="13"/>
       <c r="I44" s="56"/>
       <c r="J44" s="13"/>
@@ -24469,7 +24569,9 @@
       <c r="F45" s="13">
         <v>1</v>
       </c>
-      <c r="G45" s="13"/>
+      <c r="G45" s="13">
+        <v>1</v>
+      </c>
       <c r="H45" s="13"/>
       <c r="I45" s="56"/>
       <c r="J45" s="13"/>
@@ -24502,7 +24604,9 @@
       <c r="F46" s="13">
         <v>35</v>
       </c>
-      <c r="G46" s="13"/>
+      <c r="G46" s="13">
+        <v>35</v>
+      </c>
       <c r="H46" s="13"/>
       <c r="I46" s="56"/>
       <c r="J46" s="13"/>
@@ -24517,7 +24621,7 @@
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="97"/>
+      <c r="A47" s="93"/>
       <c r="B47" s="54" t="s">
         <v>77</v>
       </c>
@@ -24533,7 +24637,9 @@
       <c r="F47" s="13">
         <v>8</v>
       </c>
-      <c r="G47" s="13"/>
+      <c r="G47" s="13">
+        <v>8</v>
+      </c>
       <c r="H47" s="13"/>
       <c r="I47" s="56"/>
       <c r="J47" s="13"/>
@@ -24548,7 +24654,7 @@
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="97"/>
+      <c r="A48" s="93"/>
       <c r="B48" s="54" t="s">
         <v>78</v>
       </c>
@@ -24564,7 +24670,9 @@
       <c r="F48" s="13">
         <v>7</v>
       </c>
-      <c r="G48" s="13"/>
+      <c r="G48" s="13">
+        <v>7</v>
+      </c>
       <c r="H48" s="13"/>
       <c r="I48" s="56"/>
       <c r="J48" s="13"/>
@@ -24579,7 +24687,7 @@
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="97"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="54" t="s">
         <v>79</v>
       </c>
@@ -24595,7 +24703,9 @@
       <c r="F49" s="13">
         <v>4</v>
       </c>
-      <c r="G49" s="13"/>
+      <c r="G49" s="13">
+        <v>4</v>
+      </c>
       <c r="H49" s="13"/>
       <c r="I49" s="56"/>
       <c r="J49" s="13"/>
@@ -24610,7 +24720,7 @@
       <c r="S49" s="1"/>
     </row>
     <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="97"/>
+      <c r="A50" s="93"/>
       <c r="B50" s="54" t="s">
         <v>80</v>
       </c>
@@ -24626,7 +24736,9 @@
       <c r="F50" s="13">
         <v>2</v>
       </c>
-      <c r="G50" s="13"/>
+      <c r="G50" s="13">
+        <v>2</v>
+      </c>
       <c r="H50" s="13"/>
       <c r="I50" s="56"/>
       <c r="J50" s="13"/>
@@ -24641,7 +24753,7 @@
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="97"/>
+      <c r="A51" s="93"/>
       <c r="B51" s="54" t="s">
         <v>81</v>
       </c>
@@ -24657,7 +24769,9 @@
       <c r="F51" s="13">
         <v>1</v>
       </c>
-      <c r="G51" s="13"/>
+      <c r="G51" s="13">
+        <v>1</v>
+      </c>
       <c r="H51" s="13"/>
       <c r="I51" s="56"/>
       <c r="J51" s="13"/>
@@ -24672,7 +24786,7 @@
       <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="97"/>
+      <c r="A52" s="93"/>
       <c r="B52" s="54" t="s">
         <v>82</v>
       </c>
@@ -24688,7 +24802,9 @@
       <c r="F52" s="8">
         <v>0</v>
       </c>
-      <c r="G52" s="8"/>
+      <c r="G52" s="8">
+        <v>0</v>
+      </c>
       <c r="H52" s="13"/>
       <c r="I52" s="56"/>
       <c r="J52" s="8"/>
@@ -24719,7 +24835,9 @@
       <c r="F53" s="13">
         <v>2</v>
       </c>
-      <c r="G53" s="13"/>
+      <c r="G53" s="13">
+        <v>2</v>
+      </c>
       <c r="H53" s="13"/>
       <c r="I53" s="56"/>
       <c r="J53" s="13"/>
@@ -24752,7 +24870,9 @@
       <c r="F54" s="13">
         <v>6</v>
       </c>
-      <c r="G54" s="13"/>
+      <c r="G54" s="13">
+        <v>6</v>
+      </c>
       <c r="H54" s="13"/>
       <c r="I54" s="56"/>
       <c r="J54" s="13"/>
@@ -24767,10 +24887,10 @@
       <c r="S54" s="1"/>
     </row>
     <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="84" t="s">
+      <c r="A55" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="76"/>
+      <c r="B55" s="82"/>
       <c r="C55" s="60">
         <f>SUM(C12:C54)</f>
         <v>1112</v>
@@ -24789,7 +24909,7 @@
       </c>
       <c r="G55" s="60">
         <f t="shared" ref="G55" si="3">SUM(G12:G54)</f>
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="H55" s="60">
         <f t="shared" ref="H55" si="4">SUM(H12:H54)</f>
@@ -29796,8 +29916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29816,53 +29936,53 @@
       <c r="A6" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="83"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="83"/>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="62"/>
@@ -29945,7 +30065,9 @@
       <c r="F11" s="40">
         <v>0</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38">
+        <v>0</v>
+      </c>
       <c r="H11" s="38"/>
       <c r="I11" s="39"/>
       <c r="J11" s="11"/>
@@ -29971,7 +30093,9 @@
       <c r="F12" s="40">
         <v>0</v>
       </c>
-      <c r="G12" s="38"/>
+      <c r="G12" s="38">
+        <v>0</v>
+      </c>
       <c r="H12" s="38"/>
       <c r="I12" s="41"/>
       <c r="J12" s="9"/>
@@ -29997,7 +30121,9 @@
       <c r="F13" s="40">
         <v>8</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="40">
+        <v>10</v>
+      </c>
       <c r="H13" s="40"/>
       <c r="I13" s="41"/>
       <c r="J13" s="11"/>
@@ -30023,7 +30149,9 @@
       <c r="F14" s="40">
         <v>1</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="40">
+        <v>0</v>
+      </c>
       <c r="H14" s="40"/>
       <c r="I14" s="41"/>
       <c r="J14" s="9"/>
@@ -30049,7 +30177,9 @@
       <c r="F15" s="40">
         <v>0</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="38">
+        <v>0</v>
+      </c>
       <c r="H15" s="38"/>
       <c r="I15" s="41"/>
       <c r="J15" s="9"/>
@@ -30075,7 +30205,9 @@
       <c r="F16" s="40">
         <v>0</v>
       </c>
-      <c r="G16" s="38"/>
+      <c r="G16" s="38">
+        <v>0</v>
+      </c>
       <c r="H16" s="38"/>
       <c r="I16" s="41"/>
       <c r="J16" s="9"/>
@@ -30101,7 +30233,9 @@
       <c r="F17" s="40">
         <v>0</v>
       </c>
-      <c r="G17" s="38"/>
+      <c r="G17" s="38">
+        <v>0</v>
+      </c>
       <c r="H17" s="38"/>
       <c r="I17" s="41"/>
       <c r="J17" s="9"/>
@@ -30127,7 +30261,9 @@
       <c r="F18" s="40">
         <v>0</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38">
+        <v>0</v>
+      </c>
       <c r="H18" s="38"/>
       <c r="I18" s="41"/>
       <c r="J18" s="11"/>
@@ -30153,7 +30289,9 @@
       <c r="F19" s="40">
         <v>0</v>
       </c>
-      <c r="G19" s="38"/>
+      <c r="G19" s="38">
+        <v>1</v>
+      </c>
       <c r="H19" s="38"/>
       <c r="I19" s="41"/>
       <c r="J19" s="9"/>
@@ -30179,7 +30317,9 @@
       <c r="F20" s="40">
         <v>0</v>
       </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="38">
+        <v>3</v>
+      </c>
       <c r="H20" s="38"/>
       <c r="I20" s="41"/>
       <c r="J20" s="9"/>
@@ -30205,7 +30345,9 @@
       <c r="F21" s="40">
         <v>1</v>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="40">
+        <v>0</v>
+      </c>
       <c r="H21" s="40"/>
       <c r="I21" s="41"/>
       <c r="J21" s="9"/>
@@ -30231,7 +30373,9 @@
       <c r="F22" s="40">
         <v>0</v>
       </c>
-      <c r="G22" s="38"/>
+      <c r="G22" s="38">
+        <v>0</v>
+      </c>
       <c r="H22" s="38"/>
       <c r="I22" s="41"/>
       <c r="J22" s="9"/>
@@ -30257,7 +30401,9 @@
       <c r="F23" s="40">
         <v>0</v>
       </c>
-      <c r="G23" s="38"/>
+      <c r="G23" s="38">
+        <v>0</v>
+      </c>
       <c r="H23" s="38"/>
       <c r="I23" s="41"/>
       <c r="J23" s="9"/>
@@ -30283,7 +30429,9 @@
       <c r="F24" s="40">
         <v>0</v>
       </c>
-      <c r="G24" s="38"/>
+      <c r="G24" s="38">
+        <v>0</v>
+      </c>
       <c r="H24" s="38"/>
       <c r="I24" s="41"/>
       <c r="J24" s="9"/>
@@ -30309,7 +30457,9 @@
       <c r="F25" s="40">
         <v>0</v>
       </c>
-      <c r="G25" s="38"/>
+      <c r="G25" s="38">
+        <v>0</v>
+      </c>
       <c r="H25" s="38"/>
       <c r="I25" s="41"/>
       <c r="J25" s="11"/>
@@ -30322,7 +30472,7 @@
       <c r="A26" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="83"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="71">
         <f t="shared" ref="C26:N26" si="0">SUM(C11:C25)</f>
         <v>15</v>
@@ -30341,7 +30491,7 @@
       </c>
       <c r="G26" s="71">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H26" s="71">
         <f t="shared" si="0"/>
